--- a/main code/result/뽐뿌_result.xlsx
+++ b/main code/result/뽐뿌_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>운전</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>쿠팡</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>경우</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10억</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>진짜</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>택배</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>기존회원</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이논리</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>웨이브</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>유지라</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>장난질</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>유지</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>잘먹고싶네요</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>자유</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>우주패스</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>인상</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>이유</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>유명</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>위대한</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
